--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1149.439920182876</v>
+        <v>1232.670542473501</v>
       </c>
       <c r="AB2" t="n">
-        <v>1572.714408504577</v>
+        <v>1686.594217798519</v>
       </c>
       <c r="AC2" t="n">
-        <v>1422.616752675436</v>
+        <v>1525.62803280168</v>
       </c>
       <c r="AD2" t="n">
-        <v>1149439.920182876</v>
+        <v>1232670.542473502</v>
       </c>
       <c r="AE2" t="n">
-        <v>1572714.408504577</v>
+        <v>1686594.217798519</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.262775604486688e-06</v>
+        <v>2.134784813513061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04600694444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1422616.752675436</v>
+        <v>1525628.03280168</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>562.951008539127</v>
+        <v>614.9381782160106</v>
       </c>
       <c r="AB3" t="n">
-        <v>770.2544055289193</v>
+        <v>841.3855445928893</v>
       </c>
       <c r="AC3" t="n">
-        <v>696.7424061240861</v>
+        <v>761.0848891089719</v>
       </c>
       <c r="AD3" t="n">
-        <v>562951.008539127</v>
+        <v>614938.1782160106</v>
       </c>
       <c r="AE3" t="n">
-        <v>770254.4055289193</v>
+        <v>841385.5445928894</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.977305859653906e-06</v>
+        <v>3.342733662150063e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>696742.4061240861</v>
+        <v>761084.8891089719</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>462.9107625795634</v>
+        <v>504.5687889064377</v>
       </c>
       <c r="AB4" t="n">
-        <v>633.3749275428793</v>
+        <v>690.3732769857232</v>
       </c>
       <c r="AC4" t="n">
-        <v>572.92651340548</v>
+        <v>624.4850203751849</v>
       </c>
       <c r="AD4" t="n">
-        <v>462910.7625795634</v>
+        <v>504568.7889064377</v>
       </c>
       <c r="AE4" t="n">
-        <v>633374.9275428792</v>
+        <v>690373.2769857233</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.248627553305538e-06</v>
+        <v>3.801416447219857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>572926.5134054801</v>
+        <v>624485.0203751849</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>410.9933099687293</v>
+        <v>452.565995441032</v>
       </c>
       <c r="AB5" t="n">
-        <v>562.3391784443778</v>
+        <v>619.2207607650242</v>
       </c>
       <c r="AC5" t="n">
-        <v>508.6703165016395</v>
+        <v>560.1232004394057</v>
       </c>
       <c r="AD5" t="n">
-        <v>410993.3099687293</v>
+        <v>452565.995441032</v>
       </c>
       <c r="AE5" t="n">
-        <v>562339.1784443778</v>
+        <v>619220.7607650242</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.401187652213579e-06</v>
+        <v>4.059326863876444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>508670.3165016396</v>
+        <v>560123.2004394056</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>394.1806602136561</v>
+        <v>435.7533456859588</v>
       </c>
       <c r="AB6" t="n">
-        <v>539.3353693277276</v>
+        <v>596.216951648374</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.8619586410335</v>
+        <v>539.3148425787996</v>
       </c>
       <c r="AD6" t="n">
-        <v>394180.6602136561</v>
+        <v>435753.3456859589</v>
       </c>
       <c r="AE6" t="n">
-        <v>539335.3693277276</v>
+        <v>596216.951648374</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.467010705904012e-06</v>
+        <v>4.17060400202999e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.213975694444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>487861.9586410335</v>
+        <v>539314.8425787996</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>365.3088220460916</v>
+        <v>417.2105613598524</v>
       </c>
       <c r="AB7" t="n">
-        <v>499.8316466112616</v>
+        <v>570.8458960834859</v>
       </c>
       <c r="AC7" t="n">
-        <v>452.128415776804</v>
+        <v>516.3651649485242</v>
       </c>
       <c r="AD7" t="n">
-        <v>365308.8220460915</v>
+        <v>417210.5613598524</v>
       </c>
       <c r="AE7" t="n">
-        <v>499831.6466112616</v>
+        <v>570845.8960834858</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.534981178367325e-06</v>
+        <v>4.28551145816585e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.992621527777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>452128.415776804</v>
+        <v>516365.1649485243</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>350.5707648476921</v>
+        <v>392.2287016660154</v>
       </c>
       <c r="AB8" t="n">
-        <v>479.6663865552165</v>
+        <v>536.6646135285122</v>
       </c>
       <c r="AC8" t="n">
-        <v>433.8876998383877</v>
+        <v>485.446096026866</v>
       </c>
       <c r="AD8" t="n">
-        <v>350570.7648476921</v>
+        <v>392228.7016660154</v>
       </c>
       <c r="AE8" t="n">
-        <v>479666.3865552166</v>
+        <v>536664.6135285122</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.586892693050845e-06</v>
+        <v>4.373270449390491e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.83203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>433887.6998383877</v>
+        <v>485446.096026866</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>341.8756969892705</v>
+        <v>383.5336338075937</v>
       </c>
       <c r="AB9" t="n">
-        <v>467.7694111120032</v>
+        <v>524.7676380852989</v>
       </c>
       <c r="AC9" t="n">
-        <v>423.1261550339647</v>
+        <v>474.684551222443</v>
       </c>
       <c r="AD9" t="n">
-        <v>341875.6969892705</v>
+        <v>383533.6338075937</v>
       </c>
       <c r="AE9" t="n">
-        <v>467769.4111120033</v>
+        <v>524767.6380852989</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.610514299552518e-06</v>
+        <v>4.413203947195947e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.762586805555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>423126.1550339647</v>
+        <v>474684.551222443</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>329.183690174711</v>
+        <v>370.8416269930343</v>
       </c>
       <c r="AB10" t="n">
-        <v>450.4036474565004</v>
+        <v>507.4018744297959</v>
       </c>
       <c r="AC10" t="n">
-        <v>407.4177554887406</v>
+        <v>458.976151677219</v>
       </c>
       <c r="AD10" t="n">
-        <v>329183.6901747111</v>
+        <v>370841.6269930343</v>
       </c>
       <c r="AE10" t="n">
-        <v>450403.6474565004</v>
+        <v>507401.8744297959</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.646086758355433e-06</v>
+        <v>4.473340953772544e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH10" t="n">
-        <v>407417.7554887406</v>
+        <v>458976.151677219</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>319.9496499190385</v>
+        <v>361.6075867373618</v>
       </c>
       <c r="AB11" t="n">
-        <v>437.7692262015844</v>
+        <v>494.76745317488</v>
       </c>
       <c r="AC11" t="n">
-        <v>395.9891456658723</v>
+        <v>447.5475418543506</v>
       </c>
       <c r="AD11" t="n">
-        <v>319949.6499190385</v>
+        <v>361607.5867373619</v>
       </c>
       <c r="AE11" t="n">
-        <v>437769.2262015844</v>
+        <v>494767.45317488</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.6641064028409e-06</v>
+        <v>4.50380405684153e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.606336805555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>395989.1456658723</v>
+        <v>447547.5418543506</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>319.8745895662777</v>
+        <v>361.532526384601</v>
       </c>
       <c r="AB12" t="n">
-        <v>437.666525315508</v>
+        <v>494.6647522888036</v>
       </c>
       <c r="AC12" t="n">
-        <v>395.8962464082215</v>
+        <v>447.4546425966997</v>
       </c>
       <c r="AD12" t="n">
-        <v>319874.5895662777</v>
+        <v>361532.526384601</v>
       </c>
       <c r="AE12" t="n">
-        <v>437666.525315508</v>
+        <v>494664.7522888036</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.665880357479365e-06</v>
+        <v>4.506803015174747e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.599826388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>395896.2464082215</v>
+        <v>447454.6425966997</v>
       </c>
     </row>
     <row r="13">
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>320.4065908547473</v>
+        <v>362.0645276730706</v>
       </c>
       <c r="AB13" t="n">
-        <v>438.3944329486326</v>
+        <v>495.3926599219282</v>
       </c>
       <c r="AC13" t="n">
-        <v>396.5546835584654</v>
+        <v>448.1130797469437</v>
       </c>
       <c r="AD13" t="n">
-        <v>320406.5908547473</v>
+        <v>362064.5276730707</v>
       </c>
       <c r="AE13" t="n">
-        <v>438394.4329486326</v>
+        <v>495392.6599219282</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.667467580050624e-06</v>
+        <v>4.509486293683413e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7.595486111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>396554.6835584654</v>
+        <v>448113.0797469437</v>
       </c>
     </row>
   </sheetData>
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.1379279729526</v>
+        <v>872.7719028799736</v>
       </c>
       <c r="AB2" t="n">
-        <v>1097.520500880429</v>
+        <v>1194.165021499261</v>
       </c>
       <c r="AC2" t="n">
-        <v>992.7746846560976</v>
+        <v>1080.195587868505</v>
       </c>
       <c r="AD2" t="n">
-        <v>802137.9279729526</v>
+        <v>872771.9028799736</v>
       </c>
       <c r="AE2" t="n">
-        <v>1097520.500880429</v>
+        <v>1194165.021499261</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550009808982215e-06</v>
+        <v>2.684293048705988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.52213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>992774.6846560977</v>
+        <v>1080195.587868505</v>
       </c>
     </row>
     <row r="3">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.8262656225958</v>
+        <v>504.1085126413043</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.9451180266362</v>
+        <v>689.7435066938119</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.6829874641199</v>
+        <v>623.9153544760454</v>
       </c>
       <c r="AD3" t="n">
-        <v>453826.2656225958</v>
+        <v>504108.5126413043</v>
       </c>
       <c r="AE3" t="n">
-        <v>620945.1180266362</v>
+        <v>689743.506693812</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.212395605966264e-06</v>
+        <v>3.831406815407488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.474826388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>561682.9874641199</v>
+        <v>623915.3544760455</v>
       </c>
     </row>
     <row r="4">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.9882139079358</v>
+        <v>421.4358261379479</v>
       </c>
       <c r="AB4" t="n">
-        <v>521.2848822825862</v>
+        <v>576.6270897584022</v>
       </c>
       <c r="AC4" t="n">
-        <v>471.5341847454627</v>
+        <v>521.5946096130629</v>
       </c>
       <c r="AD4" t="n">
-        <v>380988.2139079358</v>
+        <v>421435.8261379479</v>
       </c>
       <c r="AE4" t="n">
-        <v>521284.8822825861</v>
+        <v>576627.0897584022</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.456468062801886e-06</v>
+        <v>4.254089301329723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.532986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>471534.1847454627</v>
+        <v>521594.6096130629</v>
       </c>
     </row>
     <row r="5">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.957860419554</v>
+        <v>402.234880448974</v>
       </c>
       <c r="AB5" t="n">
-        <v>495.2467130798397</v>
+        <v>550.3555087808087</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.9810618666264</v>
+        <v>497.8303514515754</v>
       </c>
       <c r="AD5" t="n">
-        <v>361957.8604195541</v>
+        <v>402234.880448974</v>
       </c>
       <c r="AE5" t="n">
-        <v>495246.7130798397</v>
+        <v>550355.5087808087</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.537986524839584e-06</v>
+        <v>4.395262240830462e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.259548611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>447981.0618666264</v>
+        <v>497830.3514515754</v>
       </c>
     </row>
     <row r="6">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>323.4114562211615</v>
+        <v>363.773727596602</v>
       </c>
       <c r="AB6" t="n">
-        <v>442.5058223082644</v>
+        <v>497.7312626618827</v>
       </c>
       <c r="AC6" t="n">
-        <v>400.2736876879852</v>
+        <v>450.2284895236464</v>
       </c>
       <c r="AD6" t="n">
-        <v>323411.4562211615</v>
+        <v>363773.7275966021</v>
       </c>
       <c r="AE6" t="n">
-        <v>442505.8223082644</v>
+        <v>497731.2626618827</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.654855409988418e-06</v>
+        <v>4.597654725185787e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.894965277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>400273.6876879851</v>
+        <v>450228.4895236464</v>
       </c>
     </row>
     <row r="7">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>306.214388182587</v>
+        <v>346.5766595580275</v>
       </c>
       <c r="AB7" t="n">
-        <v>418.97603513679</v>
+        <v>474.2014754904082</v>
       </c>
       <c r="AC7" t="n">
-        <v>378.9895503798925</v>
+        <v>428.9443522155537</v>
       </c>
       <c r="AD7" t="n">
-        <v>306214.388182587</v>
+        <v>346576.6595580275</v>
       </c>
       <c r="AE7" t="n">
-        <v>418976.03513679</v>
+        <v>474201.4754904082</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.718408902904065e-06</v>
+        <v>4.707716092711244e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.710503472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>378989.5503798925</v>
+        <v>428944.3522155538</v>
       </c>
     </row>
     <row r="8">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>294.9156596983285</v>
+        <v>335.277931073769</v>
       </c>
       <c r="AB8" t="n">
-        <v>403.5166163599065</v>
+        <v>458.7420567135248</v>
       </c>
       <c r="AC8" t="n">
-        <v>365.0055568336443</v>
+        <v>414.9603586693056</v>
       </c>
       <c r="AD8" t="n">
-        <v>294915.6596983285</v>
+        <v>335277.931073769</v>
       </c>
       <c r="AE8" t="n">
-        <v>403516.6163599065</v>
+        <v>458742.0567135248</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.747867588830011e-06</v>
+        <v>4.758732380090066e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.628038194444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>365005.5568336443</v>
+        <v>414960.3586693056</v>
       </c>
     </row>
     <row r="9">
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>291.4415684521571</v>
+        <v>331.8038398275976</v>
       </c>
       <c r="AB9" t="n">
-        <v>398.7632114508062</v>
+        <v>453.9886518044244</v>
       </c>
       <c r="AC9" t="n">
-        <v>360.7058102176227</v>
+        <v>410.660612053284</v>
       </c>
       <c r="AD9" t="n">
-        <v>291441.5684521571</v>
+        <v>331803.8398275976</v>
       </c>
       <c r="AE9" t="n">
-        <v>398763.2114508062</v>
+        <v>453988.6518044244</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.759457891489399e-06</v>
+        <v>4.778804362009602e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.595486111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>360705.8102176227</v>
+        <v>410660.612053284</v>
       </c>
     </row>
   </sheetData>
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.9231460796918</v>
+        <v>378.3293819426765</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.5201359988463</v>
+        <v>517.6469510883308</v>
       </c>
       <c r="AC2" t="n">
-        <v>412.045933545642</v>
+        <v>468.2434525985186</v>
       </c>
       <c r="AD2" t="n">
-        <v>332923.1460796918</v>
+        <v>378329.3819426765</v>
       </c>
       <c r="AE2" t="n">
-        <v>455520.1359988463</v>
+        <v>517646.9510883307</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46914230263382e-06</v>
+        <v>4.672148570622809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.47265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>412045.933545642</v>
+        <v>468243.4525985186</v>
       </c>
     </row>
     <row r="3">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.4040584590223</v>
+        <v>269.8655209098867</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.3537298438145</v>
+        <v>369.2419113354336</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.8750580833905</v>
+        <v>334.0019815518564</v>
       </c>
       <c r="AD3" t="n">
-        <v>233404.0584590223</v>
+        <v>269865.5209098867</v>
       </c>
       <c r="AE3" t="n">
-        <v>319353.7298438145</v>
+        <v>369241.9113354336</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.953594273403747e-06</v>
+        <v>5.588835948403234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.918836805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>288875.0580833905</v>
+        <v>334001.9815518564</v>
       </c>
     </row>
     <row r="4">
@@ -6316,28 +6316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.6480735322381</v>
+        <v>266.1095359831024</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.2146255646308</v>
+        <v>364.1028070562471</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.2264227038322</v>
+        <v>329.3533461722974</v>
       </c>
       <c r="AD4" t="n">
-        <v>229648.0735322381</v>
+        <v>266109.5359831025</v>
       </c>
       <c r="AE4" t="n">
-        <v>314214.6255646307</v>
+        <v>364102.8070562471</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.974071664826725e-06</v>
+        <v>5.627583579499626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.864583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>284226.4227038322</v>
+        <v>329353.3461722974</v>
       </c>
     </row>
   </sheetData>
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>459.9601697543486</v>
+        <v>516.8546135736117</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.3377962684521</v>
+        <v>707.1832843076817</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.2746802737348</v>
+        <v>639.6907041913292</v>
       </c>
       <c r="AD2" t="n">
-        <v>459960.1697543486</v>
+        <v>516854.6135736117</v>
       </c>
       <c r="AE2" t="n">
-        <v>629337.7962684521</v>
+        <v>707183.2843076817</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.099024509614813e-06</v>
+        <v>3.823966801331945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.65972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>569274.6802737348</v>
+        <v>639690.7041913292</v>
       </c>
     </row>
     <row r="3">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.8781168342235</v>
+        <v>349.7793886040927</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.7253985440324</v>
+        <v>478.5835906656681</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.9993254198475</v>
+        <v>432.9082444688241</v>
       </c>
       <c r="AD3" t="n">
-        <v>311878.1168342235</v>
+        <v>349779.3886040927</v>
       </c>
       <c r="AE3" t="n">
-        <v>426725.3985440324</v>
+        <v>478583.5906656681</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.647752697067905e-06</v>
+        <v>4.823630388948047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.450520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>385999.3254198475</v>
+        <v>432908.2444688241</v>
       </c>
     </row>
     <row r="4">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.0642080415662</v>
+        <v>306.0507311574561</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.7772756006825</v>
+        <v>418.7521123749675</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.772567192492</v>
+        <v>378.7869984921807</v>
       </c>
       <c r="AD4" t="n">
-        <v>268064.2080415662</v>
+        <v>306050.7311574561</v>
       </c>
       <c r="AE4" t="n">
-        <v>366777.2756006825</v>
+        <v>418752.1123749674</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.825919233693035e-06</v>
+        <v>5.148211125400626e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.918836805555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>331772.567192492</v>
+        <v>378786.9984921807</v>
       </c>
     </row>
     <row r="5">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.4402935606623</v>
+        <v>289.4268166765552</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.0317024124008</v>
+        <v>396.0065391868525</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.1977995857908</v>
+        <v>358.212230885527</v>
       </c>
       <c r="AD5" t="n">
-        <v>251440.2935606623</v>
+        <v>289426.8166765553</v>
       </c>
       <c r="AE5" t="n">
-        <v>344031.7024124008</v>
+        <v>396006.5391868525</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.903557776562666e-06</v>
+        <v>5.289651689375622e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.706163194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>311197.7995857908</v>
+        <v>358212.230885527</v>
       </c>
     </row>
     <row r="6">
@@ -7037,28 +7037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>252.4595218296016</v>
+        <v>290.4460449454946</v>
       </c>
       <c r="AB6" t="n">
-        <v>345.4262554951405</v>
+        <v>397.4010922695931</v>
       </c>
       <c r="AC6" t="n">
-        <v>312.4592584795819</v>
+        <v>359.4736897793183</v>
       </c>
       <c r="AD6" t="n">
-        <v>252459.5218296016</v>
+        <v>290446.0449454946</v>
       </c>
       <c r="AE6" t="n">
-        <v>345426.2554951406</v>
+        <v>397401.092269593</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.904382621639634e-06</v>
+        <v>5.291154377970309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.703993055555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>312459.2584795819</v>
+        <v>359473.6897793183</v>
       </c>
     </row>
   </sheetData>
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.3873440436982</v>
+        <v>293.3152530244662</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.2227663135512</v>
+        <v>401.3268693437688</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.6569444058479</v>
+        <v>363.0247961993975</v>
       </c>
       <c r="AD2" t="n">
-        <v>249387.3440436982</v>
+        <v>293315.2530244662</v>
       </c>
       <c r="AE2" t="n">
-        <v>341222.7663135512</v>
+        <v>401326.8693437688</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.795220318143615e-06</v>
+        <v>5.477731202267741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.689236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>308656.9444058479</v>
+        <v>363024.7961993975</v>
       </c>
     </row>
     <row r="3">
@@ -7440,28 +7440,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.4148297389645</v>
+        <v>256.5401782612127</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.9495381815984</v>
+        <v>351.0095896507243</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.0364594499835</v>
+        <v>317.5097270596171</v>
       </c>
       <c r="AD3" t="n">
-        <v>221414.8297389645</v>
+        <v>256540.1782612127</v>
       </c>
       <c r="AE3" t="n">
-        <v>302949.5381815984</v>
+        <v>351009.5896507243</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.004425298706262e-06</v>
+        <v>5.887705558227952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>274036.4594499834</v>
+        <v>317509.7270596172</v>
       </c>
     </row>
   </sheetData>
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>880.2269962752238</v>
+        <v>951.3716903593158</v>
       </c>
       <c r="AB2" t="n">
-        <v>1204.365409178151</v>
+        <v>1301.708718306392</v>
       </c>
       <c r="AC2" t="n">
-        <v>1089.422464863655</v>
+        <v>1177.475465190889</v>
       </c>
       <c r="AD2" t="n">
-        <v>880226.9962752238</v>
+        <v>951371.6903593158</v>
       </c>
       <c r="AE2" t="n">
-        <v>1204365.409178151</v>
+        <v>1301708.718306391</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.474060767948808e-06</v>
+        <v>2.536093849658373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.09288194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1089422.464863655</v>
+        <v>1177475.465190889</v>
       </c>
     </row>
     <row r="3">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.8023129649931</v>
+        <v>528.6808454150736</v>
       </c>
       <c r="AB3" t="n">
-        <v>653.7502037490606</v>
+        <v>723.3644564496964</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.3572018474233</v>
+        <v>654.3275679745276</v>
       </c>
       <c r="AD3" t="n">
-        <v>477802.3129649931</v>
+        <v>528680.8454150736</v>
       </c>
       <c r="AE3" t="n">
-        <v>653750.2037490606</v>
+        <v>723364.4564496963</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.148778583096285e-06</v>
+        <v>3.696933170842911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.665798611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>591357.2018474233</v>
+        <v>654327.5679745276</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.760839998112</v>
+        <v>449.5540315936208</v>
       </c>
       <c r="AB4" t="n">
-        <v>545.6021733720913</v>
+        <v>615.0996589505293</v>
       </c>
       <c r="AC4" t="n">
-        <v>493.5306677029179</v>
+        <v>556.3954107980833</v>
       </c>
       <c r="AD4" t="n">
-        <v>398760.839998112</v>
+        <v>449554.0315936208</v>
       </c>
       <c r="AE4" t="n">
-        <v>545602.1733720914</v>
+        <v>615099.6589505293</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.400804687122857e-06</v>
+        <v>4.130539346566969e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.65234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>493530.6677029179</v>
+        <v>556395.4107980833</v>
       </c>
     </row>
     <row r="5">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.5318666178711</v>
+        <v>407.1494412319149</v>
       </c>
       <c r="AB5" t="n">
-        <v>501.5050701512887</v>
+        <v>557.079827659148</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.6421301228357</v>
+        <v>503.9129107738069</v>
       </c>
       <c r="AD5" t="n">
-        <v>366531.8666178711</v>
+        <v>407149.4412319149</v>
       </c>
       <c r="AE5" t="n">
-        <v>501505.0701512888</v>
+        <v>557079.827659148</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.53576739379869e-06</v>
+        <v>4.362740147087638e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.192274305555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>453642.1301228357</v>
+        <v>503912.9107738069</v>
       </c>
     </row>
     <row r="6">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>338.668495143457</v>
+        <v>389.3763458843941</v>
       </c>
       <c r="AB6" t="n">
-        <v>463.3811760548018</v>
+        <v>532.7618945110419</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.1567269716958</v>
+        <v>481.9158470349226</v>
       </c>
       <c r="AD6" t="n">
-        <v>338668.495143457</v>
+        <v>389376.3458843941</v>
       </c>
       <c r="AE6" t="n">
-        <v>463381.1760548018</v>
+        <v>532761.8945110419</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.605737421160415e-06</v>
+        <v>4.483122264237006e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.970920138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>419156.7269716958</v>
+        <v>481915.8470349226</v>
       </c>
     </row>
     <row r="7">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>322.3198091658615</v>
+        <v>363.0226351259259</v>
       </c>
       <c r="AB7" t="n">
-        <v>441.0121826471338</v>
+        <v>496.7035848076424</v>
       </c>
       <c r="AC7" t="n">
-        <v>398.9225988997764</v>
+        <v>449.2988918014598</v>
       </c>
       <c r="AD7" t="n">
-        <v>322319.8091658615</v>
+        <v>363022.6351259259</v>
       </c>
       <c r="AE7" t="n">
-        <v>441012.1826471338</v>
+        <v>496703.5848076424</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.666901371207122e-06</v>
+        <v>4.588353690855948e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.788628472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>398922.5988997764</v>
+        <v>449298.8918014598</v>
       </c>
     </row>
     <row r="8">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>311.1686731905148</v>
+        <v>351.8714991505792</v>
       </c>
       <c r="AB8" t="n">
-        <v>425.7547064522656</v>
+        <v>481.4461086127742</v>
       </c>
       <c r="AC8" t="n">
-        <v>385.1212748189441</v>
+        <v>435.4975677206275</v>
       </c>
       <c r="AD8" t="n">
-        <v>311168.6731905148</v>
+        <v>351871.4991505792</v>
       </c>
       <c r="AE8" t="n">
-        <v>425754.7064522656</v>
+        <v>481446.1086127742</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.695233967785879e-06</v>
+        <v>4.637099390823407e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.706163194444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>385121.274818944</v>
+        <v>435497.5677206275</v>
       </c>
     </row>
     <row r="9">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>298.918906633271</v>
+        <v>339.6217325933353</v>
       </c>
       <c r="AB9" t="n">
-        <v>408.994035427085</v>
+        <v>464.6854375875936</v>
       </c>
       <c r="AC9" t="n">
-        <v>369.9602187126573</v>
+        <v>420.3365116143407</v>
       </c>
       <c r="AD9" t="n">
-        <v>298918.906633271</v>
+        <v>339621.7325933353</v>
       </c>
       <c r="AE9" t="n">
-        <v>408994.035427085</v>
+        <v>464685.4375875936</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.733808415154929e-06</v>
+        <v>4.703466002603429e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>369960.2187126572</v>
+        <v>420336.5116143407</v>
       </c>
     </row>
     <row r="10">
@@ -8585,28 +8585,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>299.9000348626966</v>
+        <v>340.6028608227609</v>
       </c>
       <c r="AB10" t="n">
-        <v>410.3364583549079</v>
+        <v>466.0278605154163</v>
       </c>
       <c r="AC10" t="n">
-        <v>371.174522680351</v>
+        <v>421.5508155820345</v>
       </c>
       <c r="AD10" t="n">
-        <v>299900.0348626966</v>
+        <v>340602.8608227609</v>
       </c>
       <c r="AE10" t="n">
-        <v>410336.4583549079</v>
+        <v>466027.8605154163</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.731224022899434e-06</v>
+        <v>4.699019604295587e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.606336805555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>371174.522680351</v>
+        <v>421550.8155820345</v>
       </c>
     </row>
   </sheetData>
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.9999675297766</v>
+        <v>248.3846181154406</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.8041965863589</v>
+        <v>339.8507924613642</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.859375017514</v>
+        <v>307.4159098125358</v>
       </c>
       <c r="AD2" t="n">
-        <v>213999.9675297766</v>
+        <v>248384.6181154407</v>
       </c>
       <c r="AE2" t="n">
-        <v>292804.1965863589</v>
+        <v>339850.7924613642</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.97455626656158e-06</v>
+        <v>5.962975085561464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.357204861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>264859.375017514</v>
+        <v>307415.9098125358</v>
       </c>
     </row>
     <row r="3">
@@ -8988,28 +8988,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.9955920483391</v>
+        <v>247.3802426340032</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.4299657427377</v>
+        <v>338.4765616177431</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.6162988368625</v>
+        <v>306.1728336318843</v>
       </c>
       <c r="AD3" t="n">
-        <v>212995.5920483391</v>
+        <v>247380.2426340032</v>
       </c>
       <c r="AE3" t="n">
-        <v>291429.9657427378</v>
+        <v>338476.5616177431</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.995862827411137e-06</v>
+        <v>6.005687503858319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.298611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>263616.2988368626</v>
+        <v>306172.8336318843</v>
       </c>
     </row>
   </sheetData>
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.0143013018524</v>
+        <v>677.5433818029137</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.2802348559336</v>
+        <v>927.0447460871442</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.7531387574373</v>
+        <v>838.5688966360594</v>
       </c>
       <c r="AD2" t="n">
-        <v>609014.3013018523</v>
+        <v>677543.3818029137</v>
       </c>
       <c r="AE2" t="n">
-        <v>833280.2348559336</v>
+        <v>927044.7460871441</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.801191823905519e-06</v>
+        <v>3.190044561117182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.99001736111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>753753.1387574374</v>
+        <v>838568.8966360594</v>
       </c>
     </row>
     <row r="3">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.4278335743319</v>
+        <v>427.4137514413351</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.7816569541412</v>
+        <v>584.8063508859479</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.3653023255569</v>
+        <v>528.9932535382607</v>
       </c>
       <c r="AD3" t="n">
-        <v>378427.8335743319</v>
+        <v>427413.7514413351</v>
       </c>
       <c r="AE3" t="n">
-        <v>517781.6569541412</v>
+        <v>584806.3508859479</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406531595442385e-06</v>
+        <v>4.262146277430764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.973524305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>468365.3023255569</v>
+        <v>528993.2535382607</v>
       </c>
     </row>
     <row r="4">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.9102308713569</v>
+        <v>366.0819865025961</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.2930001397055</v>
+        <v>500.8895243302597</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.6039839860397</v>
+        <v>453.0853311310416</v>
       </c>
       <c r="AD4" t="n">
-        <v>326910.2308713569</v>
+        <v>366081.9865025961</v>
       </c>
       <c r="AE4" t="n">
-        <v>447293.0001397055</v>
+        <v>500889.5243302597</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.6444680402467e-06</v>
+        <v>4.683549401498785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.166232638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>404603.9839860398</v>
+        <v>453085.3311310416</v>
       </c>
     </row>
     <row r="5">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>295.7397018879535</v>
+        <v>334.9967088652133</v>
       </c>
       <c r="AB5" t="n">
-        <v>404.6441072379271</v>
+        <v>458.3572760811306</v>
       </c>
       <c r="AC5" t="n">
-        <v>366.02544156471</v>
+        <v>414.6123009604241</v>
       </c>
       <c r="AD5" t="n">
-        <v>295739.7018879534</v>
+        <v>334996.7088652133</v>
       </c>
       <c r="AE5" t="n">
-        <v>404644.1072379271</v>
+        <v>458357.2760811306</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.738607679219883e-06</v>
+        <v>4.85027769734502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.886284722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>366025.44156471</v>
+        <v>414612.3009604241</v>
       </c>
     </row>
     <row r="6">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>275.3662052321885</v>
+        <v>314.6232122094483</v>
       </c>
       <c r="AB6" t="n">
-        <v>376.7681902982723</v>
+        <v>430.4813591414758</v>
       </c>
       <c r="AC6" t="n">
-        <v>340.8099630136806</v>
+        <v>389.3968224093948</v>
       </c>
       <c r="AD6" t="n">
-        <v>275366.2052321885</v>
+        <v>314623.2122094483</v>
       </c>
       <c r="AE6" t="n">
-        <v>376768.1902982722</v>
+        <v>430481.3591414758</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.819313014534102e-06</v>
+        <v>4.993212843149773e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.660590277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>340809.9630136806</v>
+        <v>389396.8224093948</v>
       </c>
     </row>
     <row r="7">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>272.0706700899092</v>
+        <v>311.327677067169</v>
       </c>
       <c r="AB7" t="n">
-        <v>372.2590937278562</v>
+        <v>425.9722625710597</v>
       </c>
       <c r="AC7" t="n">
-        <v>336.7312082913883</v>
+        <v>385.3180676871025</v>
       </c>
       <c r="AD7" t="n">
-        <v>272070.6700899092</v>
+        <v>311327.677067169</v>
       </c>
       <c r="AE7" t="n">
-        <v>372259.0937278562</v>
+        <v>425972.2625710597</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.831951211309572e-06</v>
+        <v>5.015596028744353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.625868055555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>336731.2082913883</v>
+        <v>385318.0676871025</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>730.2586662192556</v>
+        <v>800.1886672214636</v>
       </c>
       <c r="AB2" t="n">
-        <v>999.1721238597963</v>
+        <v>1094.853436324926</v>
       </c>
       <c r="AC2" t="n">
-        <v>903.8125387055002</v>
+        <v>990.3621609985236</v>
       </c>
       <c r="AD2" t="n">
-        <v>730258.6662192555</v>
+        <v>800188.6672214635</v>
       </c>
       <c r="AE2" t="n">
-        <v>999172.1238597963</v>
+        <v>1094853.436324926</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628792079464698e-06</v>
+        <v>2.84047116175799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.99045138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>903812.5387055002</v>
+        <v>990362.1609985236</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.9594295108802</v>
+        <v>480.7997957794163</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.6577040449762</v>
+        <v>657.8514919753634</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.3816003607083</v>
+        <v>595.0670688816016</v>
       </c>
       <c r="AD3" t="n">
-        <v>430959.4295108802</v>
+        <v>480799.7957794163</v>
       </c>
       <c r="AE3" t="n">
-        <v>589657.7040449762</v>
+        <v>657851.4919753633</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.275921264224183e-06</v>
+        <v>3.969007953173001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>533381.6003607083</v>
+        <v>595067.0688816016</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.8878726523019</v>
+        <v>402.811388081584</v>
       </c>
       <c r="AB4" t="n">
-        <v>496.5191968459293</v>
+        <v>551.1443119574674</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.1321015680226</v>
+        <v>498.5438723601459</v>
       </c>
       <c r="AD4" t="n">
-        <v>362887.8726523019</v>
+        <v>402811.388081584</v>
       </c>
       <c r="AE4" t="n">
-        <v>496519.1968459294</v>
+        <v>551144.3119574673</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.517339353943105e-06</v>
+        <v>4.390020021207288e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.404947916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>449132.1015680226</v>
+        <v>498543.8723601459</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>340.5287173209361</v>
+        <v>380.452232750218</v>
       </c>
       <c r="AB5" t="n">
-        <v>465.9264141052391</v>
+        <v>520.5515292167771</v>
       </c>
       <c r="AC5" t="n">
-        <v>421.4590510748636</v>
+        <v>470.8708218669869</v>
       </c>
       <c r="AD5" t="n">
-        <v>340528.7173209361</v>
+        <v>380452.232750218</v>
       </c>
       <c r="AE5" t="n">
-        <v>465926.4141052391</v>
+        <v>520551.5292167771</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.613380072187506e-06</v>
+        <v>4.557506647626422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.096788194444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>421459.0510748636</v>
+        <v>470870.8218669869</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.5937229095327</v>
+        <v>348.6024896848353</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.2315458790369</v>
+        <v>476.973305643224</v>
       </c>
       <c r="AC6" t="n">
-        <v>381.9343597460373</v>
+        <v>431.4516427888729</v>
       </c>
       <c r="AD6" t="n">
-        <v>308593.7229095327</v>
+        <v>348602.4896848353</v>
       </c>
       <c r="AE6" t="n">
-        <v>422231.5458790369</v>
+        <v>476973.305643224</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.703375587862209e-06</v>
+        <v>4.71445096862628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.827690972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>381934.3597460373</v>
+        <v>431451.6427888729</v>
       </c>
     </row>
     <row r="7">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>289.8813725579109</v>
+        <v>329.8901393332135</v>
       </c>
       <c r="AB7" t="n">
-        <v>396.6284825973135</v>
+        <v>451.3702423615006</v>
       </c>
       <c r="AC7" t="n">
-        <v>358.7748168897966</v>
+        <v>408.2920999326322</v>
       </c>
       <c r="AD7" t="n">
-        <v>289881.3725579109</v>
+        <v>329890.1393332135</v>
       </c>
       <c r="AE7" t="n">
-        <v>396628.4825973135</v>
+        <v>451370.2423615006</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.774357966422539e-06</v>
+        <v>4.838238038710675e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.625868055555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>358774.8168897966</v>
+        <v>408292.0999326322</v>
       </c>
     </row>
     <row r="8">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>285.9787842487065</v>
+        <v>325.9875510240091</v>
       </c>
       <c r="AB8" t="n">
-        <v>391.2887891026151</v>
+        <v>446.0305488668021</v>
       </c>
       <c r="AC8" t="n">
-        <v>353.9447362479253</v>
+        <v>403.4620192907608</v>
       </c>
       <c r="AD8" t="n">
-        <v>285978.7842487065</v>
+        <v>325987.5510240091</v>
       </c>
       <c r="AE8" t="n">
-        <v>391288.789102615</v>
+        <v>446030.5488668021</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.777185561172881e-06</v>
+        <v>4.843169117051949e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.619357638888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>353944.7362479253</v>
+        <v>403462.0192907609</v>
       </c>
     </row>
     <row r="9">
@@ -10854,28 +10854,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>285.7431119408606</v>
+        <v>325.7518787161631</v>
       </c>
       <c r="AB9" t="n">
-        <v>390.9663318538917</v>
+        <v>445.7080916180789</v>
       </c>
       <c r="AC9" t="n">
-        <v>353.6530538664486</v>
+        <v>403.1703369092842</v>
       </c>
       <c r="AD9" t="n">
-        <v>285743.1119408606</v>
+        <v>325751.8787161631</v>
       </c>
       <c r="AE9" t="n">
-        <v>390966.3318538917</v>
+        <v>445708.0916180789</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.78508332582039e-06</v>
+        <v>4.856942128970679e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>353653.0538664486</v>
+        <v>403170.3369092842</v>
       </c>
     </row>
   </sheetData>
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1049.30398162055</v>
+        <v>1131.832792010752</v>
       </c>
       <c r="AB2" t="n">
-        <v>1435.703999677778</v>
+        <v>1548.623558967805</v>
       </c>
       <c r="AC2" t="n">
-        <v>1298.682424971749</v>
+        <v>1400.825100006733</v>
       </c>
       <c r="AD2" t="n">
-        <v>1049303.98162055</v>
+        <v>1131832.792010752</v>
       </c>
       <c r="AE2" t="n">
-        <v>1435703.999677778</v>
+        <v>1548623.558967805</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.329337720980844e-06</v>
+        <v>2.259786021977133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1298682.42497175</v>
+        <v>1400825.100006733</v>
       </c>
     </row>
     <row r="3">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>537.5511046390658</v>
+        <v>589.1529799122919</v>
       </c>
       <c r="AB3" t="n">
-        <v>735.5011364481808</v>
+        <v>806.1050987110777</v>
       </c>
       <c r="AC3" t="n">
-        <v>665.3059402678944</v>
+        <v>729.1715594657035</v>
       </c>
       <c r="AD3" t="n">
-        <v>537551.1046390658</v>
+        <v>589152.979912292</v>
       </c>
       <c r="AE3" t="n">
-        <v>735501.1364481808</v>
+        <v>806105.0987110777</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.031510374873805e-06</v>
+        <v>3.4534329961344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.05425347222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>665305.9402678943</v>
+        <v>729171.5594657034</v>
       </c>
     </row>
     <row r="4">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.8806427258514</v>
+        <v>485.4824284905266</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.6546368405312</v>
+        <v>664.2584766338797</v>
       </c>
       <c r="AC4" t="n">
-        <v>536.997071499986</v>
+        <v>600.8625799165687</v>
       </c>
       <c r="AD4" t="n">
-        <v>433880.6427258514</v>
+        <v>485482.4284905266</v>
       </c>
       <c r="AE4" t="n">
-        <v>593654.6368405313</v>
+        <v>664258.4766338797</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.297942593500125e-06</v>
+        <v>3.906350109636508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>536997.071499986</v>
+        <v>600862.5799165687</v>
       </c>
     </row>
     <row r="5">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>394.7143448962058</v>
+        <v>435.9787948455826</v>
       </c>
       <c r="AB5" t="n">
-        <v>540.0655802548987</v>
+        <v>596.5254211346862</v>
       </c>
       <c r="AC5" t="n">
-        <v>488.5224792621729</v>
+        <v>539.5938721702779</v>
       </c>
       <c r="AD5" t="n">
-        <v>394714.3448962058</v>
+        <v>435978.7948455826</v>
       </c>
       <c r="AE5" t="n">
-        <v>540065.5802548986</v>
+        <v>596525.4211346862</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.449463565590685e-06</v>
+        <v>4.163925719929123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.337673611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>488522.4792621728</v>
+        <v>539593.8721702779</v>
       </c>
     </row>
     <row r="6">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>378.2215137352709</v>
+        <v>419.4859636846478</v>
       </c>
       <c r="AB6" t="n">
-        <v>517.499361048149</v>
+        <v>573.9592019279368</v>
       </c>
       <c r="AC6" t="n">
-        <v>468.1099483446279</v>
+        <v>519.181341252733</v>
       </c>
       <c r="AD6" t="n">
-        <v>378221.5137352709</v>
+        <v>419485.9636846478</v>
       </c>
       <c r="AE6" t="n">
-        <v>517499.3610481491</v>
+        <v>573959.2019279368</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.515812811133445e-06</v>
+        <v>4.276715039964087e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.118489583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>468109.9483446279</v>
+        <v>519181.341252733</v>
       </c>
     </row>
     <row r="7">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.9770360354559</v>
+        <v>402.4934809455594</v>
       </c>
       <c r="AB7" t="n">
-        <v>480.2222647177347</v>
+        <v>550.7093373888854</v>
       </c>
       <c r="AC7" t="n">
-        <v>434.390525769255</v>
+        <v>498.1504111538989</v>
       </c>
       <c r="AD7" t="n">
-        <v>350977.0360354559</v>
+        <v>402493.4809455594</v>
       </c>
       <c r="AE7" t="n">
-        <v>480222.2647177347</v>
+        <v>550709.3373888854</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.577079986804846e-06</v>
+        <v>4.380865178038927e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.925347222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>434390.5257692549</v>
+        <v>498150.4111538989</v>
       </c>
     </row>
     <row r="8">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>336.8610596735178</v>
+        <v>378.2107609689152</v>
       </c>
       <c r="AB8" t="n">
-        <v>460.9081631064058</v>
+        <v>517.4846486388426</v>
       </c>
       <c r="AC8" t="n">
-        <v>416.9197349081995</v>
+        <v>468.0966400670168</v>
       </c>
       <c r="AD8" t="n">
-        <v>336861.0596735178</v>
+        <v>378210.7609689152</v>
       </c>
       <c r="AE8" t="n">
-        <v>460908.1631064058</v>
+        <v>517484.6486388426</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.627430123493324e-06</v>
+        <v>4.46645707338461e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.7734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>416919.7349081995</v>
+        <v>468096.6400670168</v>
       </c>
     </row>
     <row r="9">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>325.9566764426586</v>
+        <v>367.3063777380561</v>
       </c>
       <c r="AB9" t="n">
-        <v>445.9883049025082</v>
+        <v>502.5647904349451</v>
       </c>
       <c r="AC9" t="n">
-        <v>403.4238070311292</v>
+        <v>454.6007121899465</v>
       </c>
       <c r="AD9" t="n">
-        <v>325956.6764426586</v>
+        <v>367306.3777380561</v>
       </c>
       <c r="AE9" t="n">
-        <v>445988.3049025082</v>
+        <v>502564.790434945</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.655381507785806e-06</v>
+        <v>4.513972574165297e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.690972222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>403423.8070311293</v>
+        <v>454600.7121899466</v>
       </c>
     </row>
     <row r="10">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>315.8241431913824</v>
+        <v>357.1738444867799</v>
       </c>
       <c r="AB10" t="n">
-        <v>432.1245258922938</v>
+        <v>488.7010114247308</v>
       </c>
       <c r="AC10" t="n">
-        <v>390.8831676317137</v>
+        <v>442.060072790531</v>
       </c>
       <c r="AD10" t="n">
-        <v>315824.1431913824</v>
+        <v>357173.8444867799</v>
       </c>
       <c r="AE10" t="n">
-        <v>432124.5258922938</v>
+        <v>488701.0114247308</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.680509519927532e-06</v>
+        <v>4.556688529412581e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.619357638888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>390883.1676317137</v>
+        <v>442060.072790531</v>
       </c>
     </row>
     <row r="11">
@@ -12105,28 +12105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>312.1442314696959</v>
+        <v>353.4939327650933</v>
       </c>
       <c r="AB11" t="n">
-        <v>427.0895083284348</v>
+        <v>483.6659938608717</v>
       </c>
       <c r="AC11" t="n">
-        <v>386.3286850774579</v>
+        <v>437.5055902362753</v>
       </c>
       <c r="AD11" t="n">
-        <v>312144.2314696959</v>
+        <v>353493.9327650933</v>
       </c>
       <c r="AE11" t="n">
-        <v>427089.5083284348</v>
+        <v>483665.9938608716</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.691614783720505e-06</v>
+        <v>4.575566741843966e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.588975694444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>386328.6850774579</v>
+        <v>437505.5902362753</v>
       </c>
     </row>
     <row r="12">
@@ -12211,28 +12211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>313.4047530616806</v>
+        <v>354.7544543570781</v>
       </c>
       <c r="AB12" t="n">
-        <v>428.8142095808763</v>
+        <v>485.3906951133131</v>
       </c>
       <c r="AC12" t="n">
-        <v>387.8887832629997</v>
+        <v>439.065688421817</v>
       </c>
       <c r="AD12" t="n">
-        <v>313404.7530616806</v>
+        <v>354754.4543570781</v>
       </c>
       <c r="AE12" t="n">
-        <v>428814.2095808762</v>
+        <v>485390.6951133132</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.690203097645127e-06</v>
+        <v>4.573166969077264e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>387888.7832629997</v>
+        <v>439065.688421817</v>
       </c>
     </row>
   </sheetData>
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.6613700647207</v>
+        <v>560.7021913790418</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.4459035459696</v>
+        <v>767.1774746796793</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.5008909970503</v>
+        <v>693.9591332365984</v>
       </c>
       <c r="AD2" t="n">
-        <v>512661.3700647207</v>
+        <v>560702.1913790418</v>
       </c>
       <c r="AE2" t="n">
-        <v>701445.9035459696</v>
+        <v>767177.4746796794</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.994763910457608e-06</v>
+        <v>3.597031371372074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>634500.8909970503</v>
+        <v>693959.1332365985</v>
       </c>
     </row>
     <row r="3">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>333.3388257191178</v>
+        <v>381.2942166703162</v>
       </c>
       <c r="AB3" t="n">
-        <v>456.0888872200005</v>
+        <v>521.7035687619642</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.5604039484965</v>
+        <v>471.9129123748791</v>
       </c>
       <c r="AD3" t="n">
-        <v>333338.8257191178</v>
+        <v>381294.2166703162</v>
       </c>
       <c r="AE3" t="n">
-        <v>456088.8872200005</v>
+        <v>521703.5687619642</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.565540068176338e-06</v>
+        <v>4.626275852176069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.61328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>412560.4039484964</v>
+        <v>471912.9123748791</v>
       </c>
     </row>
     <row r="4">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.5906099243665</v>
+        <v>333.937944022962</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.4401130358743</v>
+        <v>456.9086273145541</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.8409162829934</v>
+        <v>413.3019091989383</v>
       </c>
       <c r="AD4" t="n">
-        <v>295590.6099243665</v>
+        <v>333937.944022962</v>
       </c>
       <c r="AE4" t="n">
-        <v>404440.1130358743</v>
+        <v>456908.6273145541</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757359954216667e-06</v>
+        <v>4.972172498953579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.014322916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>365840.9162829934</v>
+        <v>413301.9091989383</v>
       </c>
     </row>
     <row r="5">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.846072019165</v>
+        <v>300.278657463781</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.2693475700326</v>
+        <v>410.8545065013618</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.0766238721353</v>
+        <v>371.6431290387926</v>
       </c>
       <c r="AD5" t="n">
-        <v>261846.072019165</v>
+        <v>300278.657463781</v>
       </c>
       <c r="AE5" t="n">
-        <v>358269.3475700326</v>
+        <v>410854.5065013617</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.863960495981118e-06</v>
+        <v>5.164398501700953e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.71484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>324076.6238721353</v>
+        <v>371643.1290387926</v>
       </c>
     </row>
     <row r="6">
@@ -12932,28 +12932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>259.1138586167887</v>
+        <v>297.5464440614047</v>
       </c>
       <c r="AB6" t="n">
-        <v>354.5310126561532</v>
+        <v>407.1161715874823</v>
       </c>
       <c r="AC6" t="n">
-        <v>320.6950703956506</v>
+        <v>368.2615755623077</v>
       </c>
       <c r="AD6" t="n">
-        <v>259113.8586167887</v>
+        <v>297546.4440614047</v>
       </c>
       <c r="AE6" t="n">
-        <v>354531.0126561532</v>
+        <v>407116.1715874823</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.876381953569716e-06</v>
+        <v>5.186797329146205e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>320695.0703956506</v>
+        <v>368261.5755623077</v>
       </c>
     </row>
   </sheetData>
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.9316822696234</v>
+        <v>415.1902847670046</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.7886037984107</v>
+        <v>568.0816645208386</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.6122879271448</v>
+        <v>513.8647477665927</v>
       </c>
       <c r="AD2" t="n">
-        <v>368931.6822696234</v>
+        <v>415190.2847670046</v>
       </c>
       <c r="AE2" t="n">
-        <v>504788.6037984107</v>
+        <v>568081.6645208385</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.341648293437914e-06</v>
+        <v>4.368767224683458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.828559027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>456612.2879271448</v>
+        <v>513864.7477665927</v>
       </c>
     </row>
     <row r="3">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.0609493279257</v>
+        <v>303.9825799798101</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.4045727680287</v>
+        <v>415.9223766933216</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.5308731915861</v>
+        <v>376.2273288124322</v>
       </c>
       <c r="AD3" t="n">
-        <v>267060.9493279257</v>
+        <v>303982.57997981</v>
       </c>
       <c r="AE3" t="n">
-        <v>365404.5727680287</v>
+        <v>415922.3766933216</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.838210515906156e-06</v>
+        <v>5.295193609300875e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.109809027777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>330530.8731915861</v>
+        <v>376227.3288124322</v>
       </c>
     </row>
     <row r="4">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.5694242326097</v>
+        <v>273.5763062305177</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.6847229413169</v>
+        <v>374.3191715194154</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.7927072782556</v>
+        <v>338.5946751498583</v>
       </c>
       <c r="AD4" t="n">
-        <v>236569.4242326097</v>
+        <v>273576.3062305177</v>
       </c>
       <c r="AE4" t="n">
-        <v>323684.7229413169</v>
+        <v>374319.1715194153</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.954980060318274e-06</v>
+        <v>5.513048254637009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.788628472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>292792.7072782556</v>
+        <v>338594.6751498583</v>
       </c>
     </row>
     <row r="5">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.8340295521808</v>
+        <v>274.8409115500887</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.4150117300023</v>
+        <v>376.0494603081016</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.357859733425</v>
+        <v>340.159827605028</v>
       </c>
       <c r="AD5" t="n">
-        <v>237834.0295521808</v>
+        <v>274840.9115500887</v>
       </c>
       <c r="AE5" t="n">
-        <v>325415.0117300023</v>
+        <v>376049.4603081016</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.955298233463811e-06</v>
+        <v>5.513641864024845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.788628472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>294357.859733425</v>
+        <v>340159.827605028</v>
       </c>
     </row>
   </sheetData>
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.9570017974369</v>
+        <v>331.8243818919588</v>
       </c>
       <c r="AB2" t="n">
-        <v>404.9414265606778</v>
+        <v>454.0167583631352</v>
       </c>
       <c r="AC2" t="n">
-        <v>366.2943851485877</v>
+        <v>410.6860361614792</v>
       </c>
       <c r="AD2" t="n">
-        <v>295957.0017974369</v>
+        <v>331824.3818919588</v>
       </c>
       <c r="AE2" t="n">
-        <v>404941.4265606778</v>
+        <v>454016.7583631352</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619369782634662e-06</v>
+        <v>5.037145227688043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.090711805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>366294.3851485876</v>
+        <v>410686.0361614792</v>
       </c>
     </row>
     <row r="3">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.9425817790627</v>
+        <v>265.6060133023857</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.3033876887515</v>
+        <v>363.4138651106376</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.4519766532957</v>
+        <v>328.7301558790407</v>
       </c>
       <c r="AD3" t="n">
-        <v>220942.5817790627</v>
+        <v>265606.0133023857</v>
       </c>
       <c r="AE3" t="n">
-        <v>302303.3876887514</v>
+        <v>363413.8651106376</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990854016519519e-06</v>
+        <v>5.751523185424239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.960069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>273451.9766532957</v>
+        <v>328730.1558790407</v>
       </c>
     </row>
     <row r="4">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.204060707047</v>
+        <v>266.8674922303699</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.0293988105412</v>
+        <v>365.1398762324282</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.0132596960943</v>
+        <v>330.2914389218395</v>
       </c>
       <c r="AD4" t="n">
-        <v>222204.060707047</v>
+        <v>266867.4922303699</v>
       </c>
       <c r="AE4" t="n">
-        <v>304029.3988105412</v>
+        <v>365139.8762324282</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.992170558399796e-06</v>
+        <v>5.754054944282135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.957899305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>275013.2596960943</v>
+        <v>330291.4389218395</v>
       </c>
     </row>
   </sheetData>
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.6302955476289</v>
+        <v>243.5552884435699</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.8794656689794</v>
+        <v>333.2430905493255</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.5499166648749</v>
+        <v>301.4388376970121</v>
       </c>
       <c r="AD2" t="n">
-        <v>201630.2955476289</v>
+        <v>243555.2884435699</v>
       </c>
       <c r="AE2" t="n">
-        <v>275879.4656689795</v>
+        <v>333243.0905493255</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.945622669812542e-06</v>
+        <v>6.075639319746057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.676215277777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>249549.9166648749</v>
+        <v>301438.8376970121</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>671.7366370474766</v>
+        <v>731.1127415225802</v>
       </c>
       <c r="AB2" t="n">
-        <v>919.0997017372563</v>
+        <v>1000.340707368948</v>
       </c>
       <c r="AC2" t="n">
-        <v>831.382116167985</v>
+        <v>904.869594244656</v>
       </c>
       <c r="AD2" t="n">
-        <v>671736.6370474766</v>
+        <v>731112.7415225803</v>
       </c>
       <c r="AE2" t="n">
-        <v>919099.7017372563</v>
+        <v>1000340.707368948</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.71388727414779e-06</v>
+        <v>3.011232331636854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.46961805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>831382.116167985</v>
+        <v>904869.594244656</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>409.2980179565812</v>
+        <v>448.9390113458819</v>
       </c>
       <c r="AB3" t="n">
-        <v>560.0196051223518</v>
+        <v>614.2581611147945</v>
       </c>
       <c r="AC3" t="n">
-        <v>506.5721200019261</v>
+        <v>555.6342243347414</v>
       </c>
       <c r="AD3" t="n">
-        <v>409298.0179565813</v>
+        <v>448939.0113458819</v>
       </c>
       <c r="AE3" t="n">
-        <v>560019.6051223518</v>
+        <v>614258.1611147944</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340789502786311e-06</v>
+        <v>4.112674817456218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.129774305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>506572.1200019261</v>
+        <v>555634.2243347414</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.9941607121347</v>
+        <v>385.5498132468637</v>
       </c>
       <c r="AB4" t="n">
-        <v>473.4044748714222</v>
+        <v>527.5262637416671</v>
       </c>
       <c r="AC4" t="n">
-        <v>428.2234162170465</v>
+        <v>477.1798975179229</v>
       </c>
       <c r="AD4" t="n">
-        <v>345994.1607121347</v>
+        <v>385549.8132468637</v>
       </c>
       <c r="AE4" t="n">
-        <v>473404.4748714222</v>
+        <v>527526.2637416671</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.573489780240416e-06</v>
+        <v>4.521520025434723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.305121527777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>428223.4162170464</v>
+        <v>477179.8975179229</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>312.5001614921189</v>
+        <v>361.8806096339126</v>
       </c>
       <c r="AB5" t="n">
-        <v>427.5765074876385</v>
+        <v>495.1410151468609</v>
       </c>
       <c r="AC5" t="n">
-        <v>386.7692057204147</v>
+        <v>447.8854515960231</v>
       </c>
       <c r="AD5" t="n">
-        <v>312500.1614921189</v>
+        <v>361880.6096339126</v>
       </c>
       <c r="AE5" t="n">
-        <v>427576.5074876385</v>
+        <v>495141.0151468609</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.677776531752855e-06</v>
+        <v>4.704747733961694e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.981770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>386769.2057204148</v>
+        <v>447885.451596023</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>291.852258478965</v>
+        <v>331.4931623597145</v>
       </c>
       <c r="AB6" t="n">
-        <v>399.3251356638499</v>
+        <v>453.5635691867441</v>
       </c>
       <c r="AC6" t="n">
-        <v>361.2141051724391</v>
+        <v>410.276098724028</v>
       </c>
       <c r="AD6" t="n">
-        <v>291852.258478965</v>
+        <v>331493.1623597145</v>
       </c>
       <c r="AE6" t="n">
-        <v>399325.1356638499</v>
+        <v>453563.569186744</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.759807564812216e-06</v>
+        <v>4.848873023105197e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.743055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>361214.1051724391</v>
+        <v>410276.098724028</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>276.0381051587031</v>
+        <v>315.6790090394526</v>
       </c>
       <c r="AB7" t="n">
-        <v>377.6875134198622</v>
+        <v>431.9259469427565</v>
       </c>
       <c r="AC7" t="n">
-        <v>341.6415472268242</v>
+        <v>390.7035407784131</v>
       </c>
       <c r="AD7" t="n">
-        <v>276038.1051587031</v>
+        <v>315679.0090394526</v>
       </c>
       <c r="AE7" t="n">
-        <v>377687.5134198623</v>
+        <v>431925.9469427565</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.826771673432102e-06</v>
+        <v>4.966526320365197e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.560763888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>341641.5472268242</v>
+        <v>390703.5407784131</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>279.4429475506999</v>
+        <v>319.0838514314494</v>
       </c>
       <c r="AB8" t="n">
-        <v>382.3461689916373</v>
+        <v>436.5846025145315</v>
       </c>
       <c r="AC8" t="n">
-        <v>345.8555872492931</v>
+        <v>394.917580800882</v>
       </c>
       <c r="AD8" t="n">
-        <v>279442.9475506999</v>
+        <v>319083.8514314494</v>
       </c>
       <c r="AE8" t="n">
-        <v>382346.1689916373</v>
+        <v>436584.6025145315</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.803432712045466e-06</v>
+        <v>4.925520685878992e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.623697916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>345855.5872492931</v>
+        <v>394917.580800882</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>954.8448845086157</v>
+        <v>1036.822797833368</v>
       </c>
       <c r="AB2" t="n">
-        <v>1306.460895767975</v>
+        <v>1418.62669338919</v>
       </c>
       <c r="AC2" t="n">
-        <v>1181.774101505262</v>
+        <v>1283.234952827195</v>
       </c>
       <c r="AD2" t="n">
-        <v>954844.8845086157</v>
+        <v>1036822.797833369</v>
       </c>
       <c r="AE2" t="n">
-        <v>1306460.895767975</v>
+        <v>1418626.69338919</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401032949409577e-06</v>
+        <v>2.395610209022289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.69835069444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1181774.101505262</v>
+        <v>1283234.952827194</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>501.1399299336941</v>
+        <v>552.429463795772</v>
       </c>
       <c r="AB3" t="n">
-        <v>685.6817608686338</v>
+        <v>755.8583638332666</v>
       </c>
       <c r="AC3" t="n">
-        <v>620.2412559717261</v>
+        <v>683.7203024428954</v>
       </c>
       <c r="AD3" t="n">
-        <v>501139.9299336941</v>
+        <v>552429.4637957719</v>
       </c>
       <c r="AE3" t="n">
-        <v>685681.7608686337</v>
+        <v>755858.3638332665</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.091870112217875e-06</v>
+        <v>3.57686476887614e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>620241.2559717261</v>
+        <v>683720.3024428955</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>416.5740264155336</v>
+        <v>467.7782194230398</v>
       </c>
       <c r="AB4" t="n">
-        <v>569.9749608907289</v>
+        <v>640.0347967331643</v>
       </c>
       <c r="AC4" t="n">
-        <v>515.5773505881989</v>
+        <v>578.9507740274292</v>
       </c>
       <c r="AD4" t="n">
-        <v>416574.0264155336</v>
+        <v>467778.2194230398</v>
       </c>
       <c r="AE4" t="n">
-        <v>569974.9608907289</v>
+        <v>640034.7967331642</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.34846677268953e-06</v>
+        <v>4.015616462536143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>515577.3505881989</v>
+        <v>578950.7740274293</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>375.2078559952234</v>
+        <v>416.1542317388651</v>
       </c>
       <c r="AB5" t="n">
-        <v>513.37594157502</v>
+        <v>569.400579294077</v>
       </c>
       <c r="AC5" t="n">
-        <v>464.3800622387587</v>
+        <v>515.0577871649818</v>
       </c>
       <c r="AD5" t="n">
-        <v>375207.8559952235</v>
+        <v>416154.2317388651</v>
       </c>
       <c r="AE5" t="n">
-        <v>513375.94157502</v>
+        <v>569400.579294077</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.514628293579272e-06</v>
+        <v>4.299734145819673e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.190104166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>464380.0622387587</v>
+        <v>515057.7871649818</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>362.8283026467989</v>
+        <v>403.7746783904407</v>
       </c>
       <c r="AB6" t="n">
-        <v>496.437690536357</v>
+        <v>552.4623282554139</v>
       </c>
       <c r="AC6" t="n">
-        <v>449.058374106241</v>
+        <v>499.7360990324642</v>
       </c>
       <c r="AD6" t="n">
-        <v>362828.302646799</v>
+        <v>403774.6783904406</v>
       </c>
       <c r="AE6" t="n">
-        <v>496437.690536357</v>
+        <v>552462.3282554139</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.563878909993765e-06</v>
+        <v>4.383947211281781e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.031684027777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>449058.374106241</v>
+        <v>499736.0990324642</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>336.1834091832363</v>
+        <v>377.2150362728985</v>
       </c>
       <c r="AB7" t="n">
-        <v>459.9809718097729</v>
+        <v>516.1222541814793</v>
       </c>
       <c r="AC7" t="n">
-        <v>416.081033447596</v>
+        <v>466.8642706245315</v>
       </c>
       <c r="AD7" t="n">
-        <v>336183.4091832363</v>
+        <v>377215.0362728985</v>
       </c>
       <c r="AE7" t="n">
-        <v>459980.9718097729</v>
+        <v>516122.2541814793</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.62356800002212e-06</v>
+        <v>4.486008903335087e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.849392361111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>416081.033447596</v>
+        <v>466864.2706245314</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>319.6460405099142</v>
+        <v>360.6776675995765</v>
       </c>
       <c r="AB8" t="n">
-        <v>437.3538144137187</v>
+        <v>493.4950967854251</v>
       </c>
       <c r="AC8" t="n">
-        <v>395.6133801960065</v>
+        <v>446.3966173729418</v>
       </c>
       <c r="AD8" t="n">
-        <v>319646.0405099142</v>
+        <v>360677.6675995765</v>
       </c>
       <c r="AE8" t="n">
-        <v>437353.8144137188</v>
+        <v>493495.0967854251</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.680600024039673e-06</v>
+        <v>4.583527308619726e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>395613.3801960064</v>
+        <v>446396.6173729418</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>311.4155369446189</v>
+        <v>352.4471640342811</v>
       </c>
       <c r="AB9" t="n">
-        <v>426.0924763314909</v>
+        <v>482.2337587031973</v>
       </c>
       <c r="AC9" t="n">
-        <v>385.4268084149592</v>
+        <v>436.2100455918946</v>
       </c>
       <c r="AD9" t="n">
-        <v>311415.5369446189</v>
+        <v>352447.1640342811</v>
       </c>
       <c r="AE9" t="n">
-        <v>426092.4763314909</v>
+        <v>482233.7587031974</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.696732210533823e-06</v>
+        <v>4.611111549715214e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.63671875</v>
       </c>
       <c r="AH9" t="n">
-        <v>385426.8084149592</v>
+        <v>436210.0455918947</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>305.208231352448</v>
+        <v>346.2398584421102</v>
       </c>
       <c r="AB10" t="n">
-        <v>417.5993669732872</v>
+        <v>473.7406493449936</v>
       </c>
       <c r="AC10" t="n">
-        <v>377.7442694937486</v>
+        <v>428.527506670684</v>
       </c>
       <c r="AD10" t="n">
-        <v>305208.231352448</v>
+        <v>346239.8584421102</v>
       </c>
       <c r="AE10" t="n">
-        <v>417599.3669732872</v>
+        <v>473740.6493449936</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.714382720462716e-06</v>
+        <v>4.641291954678513e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.586805555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>377744.2694937486</v>
+        <v>428527.506670684</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>306.0367798530856</v>
+        <v>347.0684069427478</v>
       </c>
       <c r="AB11" t="n">
-        <v>418.7330235848397</v>
+        <v>474.874305956546</v>
       </c>
       <c r="AC11" t="n">
-        <v>378.7697315093915</v>
+        <v>429.5529686863269</v>
       </c>
       <c r="AD11" t="n">
-        <v>306036.7798530856</v>
+        <v>347068.4069427478</v>
       </c>
       <c r="AE11" t="n">
-        <v>418733.0235848397</v>
+        <v>474874.305956546</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.713718453960016e-06</v>
+        <v>4.640156132986346e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.588975694444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>378769.7315093915</v>
+        <v>429552.9686863269</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.9315905159489</v>
+        <v>238.4506406490923</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.8187342692877</v>
+        <v>326.258686235758</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.9721743671869</v>
+        <v>295.1210151284563</v>
       </c>
       <c r="AD2" t="n">
-        <v>197931.5905159489</v>
+        <v>238450.6406490924</v>
       </c>
       <c r="AE2" t="n">
-        <v>270818.7342692877</v>
+        <v>326258.686235758</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.793038339340876e-06</v>
+        <v>5.986767608024975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.474826388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>244972.1743671869</v>
+        <v>295121.0151284563</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>418.9634664211895</v>
+        <v>465.7694349505659</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.2442981211207</v>
+        <v>637.2862891966091</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.5346668618655</v>
+        <v>576.4645801926085</v>
       </c>
       <c r="AD2" t="n">
-        <v>418963.4664211895</v>
+        <v>465769.4349505659</v>
       </c>
       <c r="AE2" t="n">
-        <v>573244.2981211207</v>
+        <v>637286.2891966092</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.212515580459618e-06</v>
+        <v>4.076410689863371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.25173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>518534.6668618656</v>
+        <v>576464.5801926085</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.2050346936906</v>
+        <v>327.6327592479876</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.071331410453</v>
+        <v>448.2815953403139</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.1754008337523</v>
+        <v>405.4982290482043</v>
       </c>
       <c r="AD3" t="n">
-        <v>290205.0346936906</v>
+        <v>327632.7592479876</v>
       </c>
       <c r="AE3" t="n">
-        <v>397071.331410453</v>
+        <v>448281.5953403139</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.736119881739857e-06</v>
+        <v>5.041116290062496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.289930555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>359175.4008337523</v>
+        <v>405498.2290482043</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.7700995448494</v>
+        <v>285.2830754451701</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.0099810424358</v>
+        <v>390.3368896251102</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.6553442553434</v>
+        <v>353.0836847205543</v>
       </c>
       <c r="AD4" t="n">
-        <v>247770.0995448495</v>
+        <v>285283.0754451701</v>
       </c>
       <c r="AE4" t="n">
-        <v>339009.9810424357</v>
+        <v>390336.8896251102</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.908459900265031e-06</v>
+        <v>5.358641147293705e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.797309027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>306655.3442553434</v>
+        <v>353083.6847205543</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>244.5653585127137</v>
+        <v>282.0783344130343</v>
       </c>
       <c r="AB5" t="n">
-        <v>334.6251129790738</v>
+        <v>385.9520215617459</v>
       </c>
       <c r="AC5" t="n">
-        <v>302.6889618457463</v>
+        <v>349.1173023109565</v>
       </c>
       <c r="AD5" t="n">
-        <v>244565.3585127137</v>
+        <v>282078.3344130343</v>
       </c>
       <c r="AE5" t="n">
-        <v>334625.1129790738</v>
+        <v>385952.0215617459</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.930407385947436e-06</v>
+        <v>5.399077908978699e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.738715277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>302688.9618457463</v>
+        <v>349117.3023109565</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>559.407790739431</v>
+        <v>617.6903761848453</v>
       </c>
       <c r="AB2" t="n">
-        <v>765.4064186196381</v>
+        <v>845.151223272254</v>
       </c>
       <c r="AC2" t="n">
-        <v>692.3571042812346</v>
+        <v>764.4911767003413</v>
       </c>
       <c r="AD2" t="n">
-        <v>559407.790739431</v>
+        <v>617690.3761848452</v>
       </c>
       <c r="AE2" t="n">
-        <v>765406.4186196381</v>
+        <v>845151.223272254</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.89472162049059e-06</v>
+        <v>3.384781901480408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.52560763888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>692357.1042812346</v>
+        <v>764491.1767003413</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.9925492696128</v>
+        <v>404.476029619553</v>
       </c>
       <c r="AB3" t="n">
-        <v>487.0847111935358</v>
+        <v>553.4219479485182</v>
       </c>
       <c r="AC3" t="n">
-        <v>440.5980299849097</v>
+        <v>500.6041339688931</v>
       </c>
       <c r="AD3" t="n">
-        <v>355992.5492696128</v>
+        <v>404476.029619553</v>
       </c>
       <c r="AE3" t="n">
-        <v>487084.7111935358</v>
+        <v>553421.9479485182</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.482457626081961e-06</v>
+        <v>4.434729383506274e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.795572916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>440598.0299849097</v>
+        <v>500604.1339688931</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.2571005313862</v>
+        <v>343.6552400267549</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.9837907710027</v>
+        <v>470.2042604037875</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.4281447746288</v>
+        <v>425.3286257266734</v>
       </c>
       <c r="AD4" t="n">
-        <v>295257.1005313862</v>
+        <v>343655.2400267549</v>
       </c>
       <c r="AE4" t="n">
-        <v>403983.7907710027</v>
+        <v>470204.2604037875</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.73522133881018e-06</v>
+        <v>4.886273310034091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.983940972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>365428.1447746288</v>
+        <v>425328.6257266734</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>277.5785267349819</v>
+        <v>316.4335836985915</v>
       </c>
       <c r="AB5" t="n">
-        <v>379.7951861791307</v>
+        <v>432.9583892808749</v>
       </c>
       <c r="AC5" t="n">
-        <v>343.5480666560853</v>
+        <v>391.6374482688232</v>
       </c>
       <c r="AD5" t="n">
-        <v>277578.526734982</v>
+        <v>316433.5836985915</v>
       </c>
       <c r="AE5" t="n">
-        <v>379795.1861791307</v>
+        <v>432958.3892808749</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.80686455674907e-06</v>
+        <v>5.014258690483057e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.779947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>343548.0666560853</v>
+        <v>391637.4482688232</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>264.7225559296819</v>
+        <v>303.5776128932915</v>
       </c>
       <c r="AB6" t="n">
-        <v>362.2050797579158</v>
+        <v>415.3682828596598</v>
       </c>
       <c r="AC6" t="n">
-        <v>327.6367353038418</v>
+        <v>375.7261169165795</v>
       </c>
       <c r="AD6" t="n">
-        <v>264722.5559296819</v>
+        <v>303577.6128932915</v>
       </c>
       <c r="AE6" t="n">
-        <v>362205.0797579158</v>
+        <v>415368.2828596598</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.85637082532482e-06</v>
+        <v>5.102698026411276e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.645399305555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>327636.7353038418</v>
+        <v>375726.1169165795</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.9935165300747</v>
+        <v>304.8485734936842</v>
       </c>
       <c r="AB7" t="n">
-        <v>363.9440641221975</v>
+        <v>417.1072672239416</v>
       </c>
       <c r="AC7" t="n">
-        <v>329.2097534410763</v>
+        <v>377.2991350538142</v>
       </c>
       <c r="AD7" t="n">
-        <v>265993.5165300747</v>
+        <v>304848.5734936842</v>
       </c>
       <c r="AE7" t="n">
-        <v>363944.0641221975</v>
+        <v>417107.2672239416</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.854458997879822e-06</v>
+        <v>5.099282686202667e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.649739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>329209.7534410763</v>
+        <v>377299.1350538142</v>
       </c>
     </row>
   </sheetData>
